--- a/HPP-R-Course-Agenda.xlsx
+++ b/HPP-R-Course-Agenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.mamula\Desktop\R-Projects\HPP-R-Course-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.mamula\Desktop\R-Projects\HPP-R-Group-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Lesson</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Topics</t>
   </si>
@@ -99,6 +93,27 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=8ir57LRKV9A</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Lesson1-7-13-2023</t>
+  </si>
+  <si>
+    <t>Lesson2-7-20-2023</t>
+  </si>
+  <si>
+    <t>Lesson3-7-27-2023</t>
+  </si>
+  <si>
+    <t>SoquelCreek.csv</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>LessonDate</t>
   </si>
 </sst>
 </file>
@@ -213,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -225,22 +240,13 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -259,6 +265,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,159 +565,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="69.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="69.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17">
+        <v>45120</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>45120</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>45127</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>45127</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45134</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="16" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45141</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>45148</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>

--- a/HPP-R-Course-Agenda.xlsx
+++ b/HPP-R-Course-Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Topics</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>LessonDate</t>
+  </si>
+  <si>
+    <t>vessels.csv; boats.csv; county_pop.csv</t>
+  </si>
+  <si>
+    <t>Lesson4-8-4-2023</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -707,12 +715,17 @@
       <c r="A9" s="2">
         <v>45141</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
